--- a/genshin/454769055909974912_2020-11-07_12-16-12.xlsx
+++ b/genshin/454769055909974912_2020-11-07_12-16-12.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:01:55</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.08466435185</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3695426198</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:10:33</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44146.50732638889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3687813991</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-08 23:56:25</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44143.99751157407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:08:07</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44143.79730324074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>3686483242</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-08 18:14:53</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44143.76033564815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -918,10 +924,8 @@
           <t>3685335513</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:30:17</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44143.52103009259</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -997,10 +1001,8 @@
           <t>3681404917</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-08 08:55:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44143.37189814815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1076,10 +1078,8 @@
           <t>3684577920</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-08 08:33:17</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44143.35644675926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1151,10 +1151,8 @@
           <t>3681372473</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-08 08:00:29</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44143.33366898148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1214,10 +1212,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-08 04:14:01</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44143.17640046297</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:29:20</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44143.02037037037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1357,10 +1351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:21:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44143.0147337963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1428,10 +1420,8 @@
           <t>3683233819</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:12:28</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44143.00865740741</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1507,10 +1497,8 @@
           <t>3683157530</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:49:55</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44142.99299768519</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1578,10 +1566,8 @@
           <t>3683157530</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:21:29</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44142.97325231481</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1657,10 +1643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:10:55</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44142.96591435185</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1728,10 +1712,8 @@
           <t>3683664961</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:05:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44142.96215277778</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1799,10 +1781,8 @@
           <t>3683537195</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:35:58</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44142.94164351852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1878,10 +1858,8 @@
           <t>3683359490</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:57:19</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44142.91480324074</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1957,10 +1935,8 @@
           <t>3683355272</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:54:24</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44142.91277777778</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2036,10 +2012,8 @@
           <t>3681440218</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:50:21</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44142.90996527778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2118,10 +2092,8 @@
           <t>3682949910</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:39:45</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44142.90260416667</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2197,10 +2169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:37:58</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44142.90136574074</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2268,10 +2238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:30:53</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44142.89644675926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2347,10 +2315,8 @@
           <t>3682949910</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:29:54</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44142.89576388889</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2427,10 +2393,8 @@
           <t>3683233819</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:27:34</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44142.89414351852</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2501,10 +2465,8 @@
           <t>3683218799</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:23:54</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44142.89159722222</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2564,10 +2526,8 @@
           <t>3683024425</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:14:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44142.88519675926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2643,10 +2603,8 @@
           <t>3683024425</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:13:57</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44142.8846875</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2723,10 +2681,8 @@
           <t>3683157530</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:08:32</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44142.88092592593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2794,10 +2750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:07:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44142.88053240741</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2865,10 +2819,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:02:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44142.87703703704</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2932,10 +2884,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:57:34</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44142.87331018518</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3011,10 +2961,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:50:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44142.86833333333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3078,10 +3026,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:34:34</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44142.85733796296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3158,10 +3104,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:33:43</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44142.85674768518</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3237,10 +3181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:25:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44142.8512962963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3300,10 +3242,8 @@
           <t>3682949910</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:17:44</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44142.84564814815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3371,10 +3311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:03:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44142.83559027778</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3446,10 +3384,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:33:15</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44142.81475694444</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3530,10 +3466,8 @@
           <t>3682763482</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:31:48</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44142.81375</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3597,10 +3531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:26:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44142.80996527777</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3668,10 +3600,8 @@
           <t>3682704372</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:18:01</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44142.80417824074</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3739,10 +3669,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:12:29</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44142.80033564815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3814,10 +3742,8 @@
           <t>3682466005</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:03:11</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44142.79387731481</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3885,10 +3811,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:02:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44142.79361111111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3964,10 +3888,8 @@
           <t>3682635812</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:00:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44142.79197916666</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4035,10 +3957,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:50:57</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44142.78538194444</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4107,10 +4027,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:49:22</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44142.78428240741</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4179,10 +4097,8 @@
           <t>3682531764</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:36:12</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44142.77513888889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4250,10 +4166,8 @@
           <t>3682417219</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:28:30</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44142.76979166667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4331,10 +4245,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:27:44</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44142.76925925926</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4410,10 +4322,8 @@
           <t>3682485464</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:24:35</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44142.76707175926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4489,10 +4399,8 @@
           <t>3682417219</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:23:45</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44142.76649305555</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4564,10 +4472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:22:59</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44142.76596064815</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4643,10 +4549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:22:29</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44142.76561342592</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4706,10 +4610,8 @@
           <t>3681572091</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:21:19</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44142.76480324074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4773,10 +4675,8 @@
           <t>3682466005</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:20:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44142.76398148148</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4848,10 +4748,8 @@
           <t>3682459178</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:19:51</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44142.76378472222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4927,10 +4825,8 @@
           <t>3682452728</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:17:43</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44142.76230324074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5006,10 +4902,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:15:32</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44142.76078703703</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5090,10 +4984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:13:20</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44142.75925925926</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5168,10 +5060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:12:56</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44142.75898148148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5231,10 +5121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:12:29</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44142.75866898148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5298,10 +5186,8 @@
           <t>3682431896</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:11:22</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44142.75789351852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5367,10 +5253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:11:04</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44142.75768518518</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5442,10 +5326,8 @@
           <t>3682417219</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:07:59</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44142.75554398148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5521,10 +5403,8 @@
           <t>3681728214</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:06:27</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44142.75447916667</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5596,10 +5476,8 @@
           <t>3681605550</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:06:07</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44142.75424768519</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5677,10 +5555,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:59:08</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44142.74939814815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5756,10 +5632,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:58:08</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44142.74870370371</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5835,10 +5709,8 @@
           <t>3681572091</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:54:25</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44142.74612268519</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5904,10 +5776,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:54:00</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44142.74583333333</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5984,10 +5854,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:49:49</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44142.74292824074</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6063,10 +5931,8 @@
           <t>3681472509</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:48:08</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44142.74175925926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6134,10 +6000,8 @@
           <t>3681665298</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:45:13</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44142.7397337963</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6201,10 +6065,8 @@
           <t>3681355514</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:42:50</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44142.7380787037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6272,10 +6134,8 @@
           <t>3681435521</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:41:17</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44142.73700231482</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6343,10 +6203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:40:53</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44142.73672453704</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6414,10 +6272,8 @@
           <t>3681307393</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:36:49</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44142.73390046296</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6485,10 +6341,8 @@
           <t>3682296680</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:36:48</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44142.73388888889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6556,10 +6410,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:34:02</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44142.73196759259</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6623,10 +6475,8 @@
           <t>3681583796</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:20:19</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44142.72244212963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6686,10 +6536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:18:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44142.72149305556</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6757,10 +6605,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:18:17</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44142.72103009259</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6828,10 +6674,8 @@
           <t>3682224038</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:18:06</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44142.72090277778</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6903,10 +6747,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:17:31</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44142.72049768519</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6970,10 +6812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:13:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44142.71745370371</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7037,10 +6877,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:10:11</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44142.71540509259</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7116,10 +6954,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:08:24</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44142.71416666666</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7195,10 +7031,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:07:54</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44142.71381944444</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7274,10 +7108,8 @@
           <t>3682189541</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:07:27</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44142.71350694444</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7337,10 +7169,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:04:08</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44142.7112037037</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7416,10 +7246,8 @@
           <t>3682185238</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:03:37</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44142.71084490741</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7499,10 +7327,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:02:57</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44142.71038194445</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7580,10 +7406,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:02:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44142.71008101852</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7660,10 +7484,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:02:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44142.70979166667</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7739,10 +7561,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:56:06</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44142.705625</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7818,10 +7638,8 @@
           <t>3681595442</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:45:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44142.69840277778</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7902,10 +7720,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:43:43</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44142.69702546296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7973,10 +7789,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:37:33</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44142.69274305556</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8057,10 +7871,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:37:13</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44142.69251157407</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8136,10 +7948,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:37:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44142.69236111111</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8207,10 +8017,8 @@
           <t>3681665298</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:36:48</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44142.69222222222</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8282,10 +8090,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:34:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44142.69077546296</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8357,10 +8163,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:33:37</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44142.69001157407</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8428,10 +8232,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:31:20</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44142.68842592592</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8499,10 +8301,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:30:37</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44142.68792824074</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8574,10 +8374,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:30:00</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44142.6875</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8649,10 +8447,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:29:23</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44142.68707175926</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8733,10 +8529,8 @@
           <t>3682059059</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:27:47</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44142.68596064814</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8808,10 +8602,8 @@
           <t>3681595442</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:21:14</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44142.68141203704</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8883,10 +8675,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:20:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44142.68055555555</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8962,10 +8752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:18:44</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44142.67967592592</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9041,10 +8829,8 @@
           <t>3681899834</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:18:35</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44142.67957175926</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9112,10 +8898,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:12:48</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44142.67555555556</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9191,10 +8975,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:11:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44142.67475694444</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9262,10 +9044,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:10:55</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44142.67424768519</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9333,10 +9113,8 @@
           <t>3682008637</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:10:16</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44142.67379629629</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9404,10 +9182,8 @@
           <t>3681899834</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:09:40</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44142.67337962963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9471,10 +9247,8 @@
           <t>3681515751</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:08:13</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44142.67237268519</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9538,10 +9312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:07:57</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44142.6721875</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9613,10 +9385,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:07:55</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44142.67216435185</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9692,10 +9462,8 @@
           <t>3681515751</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:06:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44142.67146990741</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9759,10 +9527,8 @@
           <t>3681996576</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:05:48</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44142.67069444444</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9834,10 +9600,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:04:42</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44142.66993055555</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9901,10 +9665,8 @@
           <t>3681992478</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:04:07</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44142.66952546296</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9972,10 +9734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:00:51</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44142.66725694444</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10051,10 +9811,8 @@
           <t>3681980926</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:00:03</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44142.66670138889</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10130,10 +9888,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:57:24</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44142.66486111111</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10201,10 +9957,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:56:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44142.66415509259</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10272,10 +10026,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:52:08</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44142.6612037037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10339,10 +10091,8 @@
           <t>3681944564</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:48:08</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44142.65842592593</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10411,10 +10161,8 @@
           <t>3681944405</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:47:59</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44142.65832175926</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10478,10 +10226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:46:12</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44142.65708333333</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10549,10 +10295,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:40:54</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44142.65340277777</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10620,10 +10364,8 @@
           <t>3681572091</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:40:20</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44142.65300925926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10692,10 +10434,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:39:37</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44142.65251157407</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10763,10 +10503,8 @@
           <t>3681515751</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:38:49</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44142.65195601852</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10835,10 +10573,8 @@
           <t>3681917584</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:38:01</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44142.65140046296</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10914,10 +10650,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:37:52</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44142.6512962963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10989,10 +10723,8 @@
           <t>3681914408</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:37:13</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44142.65084490741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11068,10 +10800,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:37:05</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44142.65075231482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11140,10 +10870,8 @@
           <t>3681909121</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:37:00</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44142.65069444444</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11216,10 +10944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:35:49</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44142.64987268519</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11291,10 +11017,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:34:43</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44142.64910879629</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11366,10 +11090,8 @@
           <t>3681906613</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:34:13</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44142.64876157408</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11441,10 +11163,8 @@
           <t>3681906006</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:33:34</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44142.64831018518</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11516,10 +11236,8 @@
           <t>3681899834</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:32:24</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44142.6475</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11587,10 +11305,8 @@
           <t>3681898796</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:31:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44142.64677083334</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11654,10 +11370,8 @@
           <t>3681893173</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:30:39</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44142.64628472222</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11725,10 +11439,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:29:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44142.64519675926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11796,10 +11508,8 @@
           <t>3681888745</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:28:34</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44142.64483796297</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11863,10 +11573,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:28:25</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44142.6447337963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11934,10 +11642,8 @@
           <t>3681895162</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:27:32</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44142.64412037037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12013,10 +11719,8 @@
           <t>3681886987</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:26:44</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44142.64356481482</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12084,10 +11788,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:26:11</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44142.64318287037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12159,10 +11861,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:25:45</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44142.64288194444</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12230,10 +11930,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:25:24</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44142.64263888889</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12305,10 +12003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:24:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44142.64202546296</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -12380,10 +12076,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:23:27</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44142.64128472222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12451,10 +12145,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:22:27</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44142.64059027778</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12526,10 +12218,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:22:13</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44142.64042824074</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12608,10 +12298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:20:37</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44142.63931712963</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12687,10 +12375,8 @@
           <t>3681690755</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:20:35</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44142.63929398148</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12762,10 +12448,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:19:54</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44142.63881944444</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12833,10 +12517,8 @@
           <t>3681859832</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:19:14</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44142.63835648148</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12908,10 +12590,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:19:09</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44142.63829861111</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12979,10 +12659,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:18:59</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44142.63818287037</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -13050,10 +12728,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:12:45</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44142.63385416667</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13121,10 +12797,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:08:45</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44142.63107638889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13192,10 +12866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:07:49</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44142.63042824074</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13263,10 +12935,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:07:11</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44142.62998842593</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13330,10 +13000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:04:30</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44142.628125</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13397,10 +13065,8 @@
           <t>3681818324</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:04:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44142.62797453703</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13460,10 +13126,8 @@
           <t>3681815674</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:01:29</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44142.62603009259</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13531,10 +13195,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:00:37</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44142.62542824074</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13610,10 +13272,8 @@
           <t>3681804043</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:59:46</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44142.62483796296</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13689,10 +13349,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:59:09</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44142.62440972222</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13766,10 +13424,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:58:15</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44142.62378472222</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13845,10 +13501,8 @@
           <t>3681332545</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:57:40</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44142.62337962963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13912,10 +13566,8 @@
           <t>3681395462</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:52:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44142.61981481482</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13991,10 +13643,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:49:29</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44142.61769675926</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14062,10 +13712,8 @@
           <t>3681780675</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:48:45</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44142.6171875</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14133,10 +13781,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:46:52</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44142.61587962963</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14212,10 +13858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:46:50</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44142.61585648148</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14279,10 +13923,8 @@
           <t>3681398166</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:45:19</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44142.61480324074</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14358,10 +14000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:44:48</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44142.61444444444</v>
       </c>
       <c r="I189" t="n">
         <v>22</v>
@@ -14429,10 +14069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:41:44</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44142.61231481482</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14504,10 +14142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:37:51</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44142.60961805555</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14586,10 +14222,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:35:37</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44142.60806712963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14653,10 +14287,8 @@
           <t>3681393972</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:34:54</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44142.60756944444</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14720,10 +14352,8 @@
           <t>3681737097</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:34:53</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44142.60755787037</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14784,10 +14414,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:34:45</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44142.60746527778</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14855,10 +14483,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:33:40</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44142.60671296297</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14930,10 +14556,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:33:21</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44142.60649305556</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15005,10 +14629,8 @@
           <t>3681728214</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:32:34</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44142.60594907407</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15084,10 +14706,8 @@
           <t>3681724665</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:32:20</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44142.60578703704</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15163,10 +14783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:31:58</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44142.6055324074</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15230,10 +14848,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:31:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44142.60494212963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15305,10 +14921,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:29:49</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44142.60403935185</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15380,10 +14994,8 @@
           <t>3681714224</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:28:22</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44142.60303240741</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15459,10 +15071,8 @@
           <t>3681435521</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:28:21</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44142.60302083333</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15538,10 +15148,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:27:06</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44142.60215277778</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15605,10 +15213,8 @@
           <t>3681708268</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:25:52</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44142.6012962963</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15684,10 +15290,8 @@
           <t>3681704078</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:24:01</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44142.60001157408</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15755,10 +15359,8 @@
           <t>3681308298</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:23:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44142.59979166667</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15830,10 +15432,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:23:18</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44142.59951388889</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15910,10 +15510,8 @@
           <t>3681307393</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:23:13</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44142.59945601852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15989,10 +15587,8 @@
           <t>3681595442</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:22:02</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44142.59863425926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16073,10 +15669,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:21:19</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44142.59813657407</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16152,10 +15746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:20:56</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44142.59787037037</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16219,10 +15811,8 @@
           <t>3681408152</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:20:54</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44142.59784722222</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16298,10 +15888,8 @@
           <t>3681691857</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:19:20</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44142.59675925926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16365,10 +15953,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:19:18</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44142.59673611111</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16432,10 +16018,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:18:54</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44142.59645833333</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16499,10 +16083,8 @@
           <t>3681691204</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:18:38</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44142.59627314815</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16570,10 +16152,8 @@
           <t>3681690755</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:18:10</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44142.59594907407</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16650,10 +16230,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:18:03</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44142.59586805556</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16717,10 +16295,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:17:24</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44142.59541666666</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16802,10 +16378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:16:28</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44142.59476851852</v>
       </c>
       <c r="I222" t="n">
         <v>8</v>
@@ -16873,10 +16447,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:14:51</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44142.59364583333</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16940,10 +16512,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:13:19</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44142.59258101852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17019,10 +16589,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:12:37</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44142.59209490741</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17103,10 +16671,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:12:30</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44142.59201388889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17174,10 +16740,8 @@
           <t>3681672055</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:11:46</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44142.59150462963</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
@@ -17241,10 +16805,8 @@
           <t>3681332545</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:11:46</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44142.59150462963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17308,10 +16870,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:09:27</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44142.58989583333</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17388,10 +16948,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:09:17</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44142.5897800926</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -17455,10 +17013,8 @@
           <t>3681497013</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:09:03</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44142.58961805556</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17534,10 +17090,8 @@
           <t>3681665298</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:08:44</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44142.58939814815</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
@@ -17601,10 +17155,8 @@
           <t>3681497013</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:08:28</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44142.58921296296</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17680,10 +17232,8 @@
           <t>3681308298</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:08:20</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44142.58912037037</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17747,10 +17297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:48</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44142.58875</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17814,10 +17362,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:48</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44142.58875</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17893,10 +17439,8 @@
           <t>3681572091</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:21</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44142.5884375</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17960,10 +17504,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:00</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44142.58819444444</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18039,10 +17581,8 @@
           <t>3681332140</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:06:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44142.58811342593</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18106,10 +17646,8 @@
           <t>3681651513</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:52</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44142.58671296296</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18188,10 +17726,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:35</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44142.5865162037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18263,10 +17799,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:16</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44142.58629629629</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18334,10 +17868,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:52</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44142.58532407408</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18406,10 +17938,8 @@
           <t>3681639393</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:44</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44142.58523148148</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18477,10 +18007,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:36</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44142.58513888889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18548,10 +18076,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:49</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44142.58459490741</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18615,10 +18141,8 @@
           <t>3681573703</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:22</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44142.58428240741</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18694,10 +18218,8 @@
           <t>3681641226</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:43</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44142.58383101852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18765,10 +18287,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:57:25</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44142.58153935185</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18844,10 +18364,8 @@
           <t>3681284588</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:57:24</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44142.58152777778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18915,10 +18433,8 @@
           <t>3681625939</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:55:30</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44142.58020833333</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -18991,10 +18507,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:54:55</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44142.57980324074</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19066,10 +18580,8 @@
           <t>3681620871</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:54:17</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44142.57936342592</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19137,10 +18649,8 @@
           <t>3681616744</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:54:09</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44142.57927083333</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19204,10 +18714,8 @@
           <t>3681595442</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:54:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44142.57923611111</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19279,10 +18787,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:54:04</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44142.57921296296</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19354,10 +18860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:53:52</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44142.57907407408</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19425,10 +18929,8 @@
           <t>3681614200</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:53:48</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44142.57902777778</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19496,10 +18998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:53:46</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44142.57900462963</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19563,10 +19063,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:53:15</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44142.57864583333</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19630,10 +19128,8 @@
           <t>3681440218</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:53:11</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44142.57859953704</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19705,10 +19201,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:52:48</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44142.57833333333</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19776,10 +19270,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:52:26</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44142.5780787037</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19855,10 +19347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:51:42</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44142.57756944445</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19922,10 +19412,8 @@
           <t>3681611629</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:51:19</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44142.57730324074</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19993,10 +19481,8 @@
           <t>3681573703</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:50:58</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44142.57706018518</v>
       </c>
       <c r="I266" t="n">
         <v>5</v>
@@ -20068,10 +19554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:50:55</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44142.57702546296</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20135,10 +19619,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:50:16</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44142.57657407408</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20206,10 +19688,8 @@
           <t>3681396804</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:50:08</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44142.57648148148</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20285,10 +19765,8 @@
           <t>3681606340</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:49:44</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44142.57620370371</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20369,10 +19847,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:49:22</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44142.57594907407</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20444,10 +19920,8 @@
           <t>3681308298</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:49:12</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44142.57583333334</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20515,10 +19989,8 @@
           <t>3681605550</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:48:58</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44142.5756712963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20594,10 +20066,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:48:45</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44142.57552083334</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20680,10 +20150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:48:34</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44142.57539351852</v>
       </c>
       <c r="I275" t="n">
         <v>9</v>
@@ -20759,10 +20227,8 @@
           <t>3681598644</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:48:25</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44142.57528935185</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20822,10 +20288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:48:16</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44142.57518518518</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20901,10 +20365,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:48:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44142.57511574074</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20980,10 +20442,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:47:49</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44142.57487268518</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21055,10 +20515,8 @@
           <t>3681507658</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:47:46</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44142.57483796297</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21122,10 +20580,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:47:31</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44142.57466435185</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21206,10 +20662,8 @@
           <t>3681597376</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:47:11</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44142.57443287037</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21269,10 +20723,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:46:58</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44142.5742824074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21336,10 +20788,8 @@
           <t>3681595442</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:45:18</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44142.573125</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21420,10 +20870,8 @@
           <t>3681308298</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:45:15</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44142.57309027778</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21491,10 +20939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:45:07</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44142.57299768519</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21570,10 +21016,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:45:03</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44142.57295138889</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21637,10 +21081,8 @@
           <t>3681572091</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:44:59</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44142.57290509259</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21716,10 +21158,8 @@
           <t>3681332545</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:44:28</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44142.57254629629</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21783,10 +21223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:44:07</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44142.57230324074</v>
       </c>
       <c r="I290" t="n">
         <v>5</v>
@@ -21859,10 +21297,8 @@
           <t>3681583796</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:43:46</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44142.57206018519</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -21938,10 +21374,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:43:46</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44142.57206018519</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22001,10 +21435,8 @@
           <t>3681585615</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:43:16</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44142.57171296296</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22068,10 +21500,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:43:00</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44142.57152777778</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22143,10 +21573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:42:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44142.5708912037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22222,10 +21650,8 @@
           <t>3681560477</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:41:38</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44142.5705787037</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -22293,10 +21719,8 @@
           <t>3681573703</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:41:34</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44142.57053240741</v>
       </c>
       <c r="I297" t="n">
         <v>8</v>
@@ -22372,10 +21796,8 @@
           <t>3681577059</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:40:54</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44142.57006944445</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22439,10 +21861,8 @@
           <t>3681576873</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:40:44</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44142.56995370371</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22506,10 +21926,8 @@
           <t>3681308298</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:40:36</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44142.56986111111</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22577,10 +21995,8 @@
           <t>3681572136</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:40:14</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44142.56960648148</v>
       </c>
       <c r="I301" t="n">
         <v>9</v>
@@ -22652,10 +22068,8 @@
           <t>3681572091</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:40:11</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44142.56957175926</v>
       </c>
       <c r="I302" t="n">
         <v>17</v>
@@ -22723,10 +22137,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:39:45</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44142.56927083333</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22803,10 +22215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:39:27</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44142.5690625</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22866,10 +22276,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:38:38</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44142.56849537037</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22945,10 +22353,8 @@
           <t>3681440218</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:37:56</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44142.56800925926</v>
       </c>
       <c r="I306" t="n">
         <v>4</v>
@@ -23025,10 +22431,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:37:46</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44142.56789351852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23104,10 +22508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:37:39</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44142.5678125</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23175,10 +22577,8 @@
           <t>3681562924</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:37:04</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44142.5674074074</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23242,10 +22642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:36:40</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44142.56712962963</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23309,10 +22707,8 @@
           <t>3681480886</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:36:16</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44142.56685185185</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23376,10 +22772,8 @@
           <t>3681565029</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:35:57</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44142.56663194444</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23447,10 +22841,8 @@
           <t>3681560477</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:34:44</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44142.56578703703</v>
       </c>
       <c r="I313" t="n">
         <v>12</v>
@@ -23526,10 +22918,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:34:42</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44142.56576388889</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23601,10 +22991,8 @@
           <t>3681555780</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:34:16</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44142.56546296296</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23672,10 +23060,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:33:49</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44142.56515046296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23739,10 +23125,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:31:29</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44142.56353009259</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23810,10 +23194,8 @@
           <t>3681546334</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:30:50</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44142.5630787037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23881,10 +23263,8 @@
           <t>3681541946</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:30:40</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44142.56296296296</v>
       </c>
       <c r="I319" t="n">
         <v>4</v>
@@ -23960,10 +23340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:30:36</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44142.56291666667</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -24031,10 +23409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:30:15</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44142.56267361111</v>
       </c>
       <c r="I321" t="n">
         <v>293</v>
@@ -24108,10 +23484,8 @@
           <t>3681545057</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:29:37</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44142.5622337963</v>
       </c>
       <c r="I322" t="n">
         <v>6</v>
@@ -24187,10 +23561,8 @@
           <t>3681515751</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:28:48</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44142.56166666667</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24266,10 +23638,8 @@
           <t>3681537167</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:28:45</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44142.56163194445</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24345,10 +23715,8 @@
           <t>3681515751</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:28:38</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44142.56155092592</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24412,10 +23780,8 @@
           <t>3681533249</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:27:56</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44142.56106481481</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24483,10 +23849,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:27:32</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44142.56078703704</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24558,10 +23922,8 @@
           <t>3681393972</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:27:22</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44142.5606712963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24625,10 +23987,8 @@
           <t>3681390778</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:26:39</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44142.56017361111</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24696,10 +24056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:26:17</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44142.55991898148</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24763,10 +24121,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:26:15</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44142.55989583334</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24842,10 +24198,8 @@
           <t>3681441591</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:25:34</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44142.5594212963</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24909,10 +24263,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:24:58</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44142.55900462963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24980,10 +24332,8 @@
           <t>3681525730</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:24:54</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44142.55895833333</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25043,10 +24393,8 @@
           <t>3681519834</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:24:49</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44142.55890046297</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25118,10 +24466,8 @@
           <t>3681522272</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:24:21</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44142.55857638889</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25189,10 +24535,8 @@
           <t>3681519271</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:24:17</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44142.5585300926</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25260,10 +24604,8 @@
           <t>3681518974</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:24:01</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44142.5583449074</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25331,10 +24673,8 @@
           <t>3681518926</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:23:59</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44142.55832175926</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25410,10 +24750,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:23:37</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44142.55806712963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25489,10 +24827,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:23:19</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44142.5578587963</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25568,10 +24904,8 @@
           <t>3681517865</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:23:00</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44142.55763888889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25648,10 +24982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:22:22</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44142.55719907407</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25727,10 +25059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:22:16</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44142.55712962963</v>
       </c>
       <c r="I344" t="n">
         <v>16</v>
@@ -25798,10 +25128,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:22:06</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44142.55701388889</v>
       </c>
       <c r="I345" t="n">
         <v>5</v>
@@ -25869,10 +25197,8 @@
           <t>3681512516</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:22:01</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44142.55695601852</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25940,10 +25266,8 @@
           <t>3681507658</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:22:00</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44142.55694444444</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26012,10 +25336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:21:21</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44142.55649305556</v>
       </c>
       <c r="I348" t="n">
         <v>16</v>
@@ -26083,10 +25405,8 @@
           <t>3681515975</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:21:17</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44142.55644675926</v>
       </c>
       <c r="I349" t="n">
         <v>6</v>
@@ -26154,10 +25474,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:21:09</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44142.55635416666</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26229,10 +25547,8 @@
           <t>3681515751</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:21:04</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44142.55629629629</v>
       </c>
       <c r="I351" t="n">
         <v>8</v>
@@ -26309,10 +25625,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:20:24</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44142.55583333333</v>
       </c>
       <c r="I352" t="n">
         <v>4</v>
@@ -26384,10 +25698,8 @@
           <t>3681507658</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:20:19</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44142.55577546296</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26459,10 +25771,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:19:30</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44142.55520833333</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -26530,10 +25840,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:18:44</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44142.55467592592</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26609,10 +25917,8 @@
           <t>3681505750</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:18:36</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44142.55458333333</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26680,10 +25986,8 @@
           <t>3681390778</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:18:12</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44142.55430555555</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26747,10 +26051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:17:54</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44142.55409722222</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26814,10 +26116,8 @@
           <t>3681497013</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:17:03</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44142.55350694444</v>
       </c>
       <c r="I359" t="n">
         <v>41</v>
@@ -26885,10 +26185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:15:03</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44142.55211805556</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26948,10 +26246,8 @@
           <t>3681488837</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:14:45</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44142.55190972222</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -27011,10 +26307,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:14:17</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44142.55158564815</v>
       </c>
       <c r="I362" t="n">
         <v>4</v>
@@ -27082,10 +26376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:13:52</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44142.5512962963</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27161,10 +26453,8 @@
           <t>3681472509</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:13:52</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44142.5512962963</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27232,10 +26522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:13:30</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44142.55104166667</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27311,10 +26599,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:13:18</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44142.55090277778</v>
       </c>
       <c r="I366" t="n">
         <v>19</v>
@@ -27374,10 +26660,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:12:58</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44142.5506712963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27445,10 +26729,8 @@
           <t>3681450304</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:12:16</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44142.55018518519</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27512,10 +26794,8 @@
           <t>3681480886</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:11:44</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44142.54981481482</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27581,10 +26861,8 @@
           <t>3681303023</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:11:31</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44142.54966435185</v>
       </c>
       <c r="I370" t="n">
         <v>23</v>
@@ -27656,10 +26934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:11:05</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44142.54936342593</v>
       </c>
       <c r="I371" t="n">
         <v>84</v>
@@ -27727,10 +27003,8 @@
           <t>3681441591</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:10:54</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44142.54923611111</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27799,10 +27073,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:10:52</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44142.54921296296</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27870,10 +27142,8 @@
           <t>3681450304</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:10:46</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44142.54914351852</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27949,10 +27219,8 @@
           <t>3681469192</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:10:17</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44142.54880787037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28016,10 +27284,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:45</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44142.5484375</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28091,10 +27357,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:42</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44142.54840277778</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -28162,10 +27426,8 @@
           <t>3681472509</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:40</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44142.54837962963</v>
       </c>
       <c r="I378" t="n">
         <v>10</v>
@@ -28233,10 +27495,8 @@
           <t>3681453347</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:34</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44142.54831018519</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28304,10 +27564,8 @@
           <t>3681468299</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:31</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44142.54827546296</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -28375,10 +27633,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:21</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44142.54815972222</v>
       </c>
       <c r="I381" t="n">
         <v>4</v>
@@ -28446,10 +27702,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:20</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44142.54814814815</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28525,10 +27779,8 @@
           <t>3681472509</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:13</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44142.54806712963</v>
       </c>
       <c r="I383" t="n">
         <v>42</v>
@@ -28596,10 +27848,8 @@
           <t>3681467776</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:09:03</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44142.54795138889</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28667,10 +27917,8 @@
           <t>3681464517</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:58</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44142.54789351852</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28738,10 +27986,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:44</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44142.54773148148</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28809,10 +28055,8 @@
           <t>3681471535</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:23</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44142.54748842592</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28876,10 +28120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:14</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44142.54738425926</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -28952,10 +28194,8 @@
           <t>3681303023</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:02</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44142.54724537037</v>
       </c>
       <c r="I389" t="n">
         <v>11</v>
@@ -29024,10 +28264,8 @@
           <t>3681463429</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:02</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44142.54724537037</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29087,10 +28325,8 @@
           <t>3681332140</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:08:01</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44142.54723379629</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -29154,10 +28390,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:07:37</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44142.54695601852</v>
       </c>
       <c r="I392" t="n">
         <v>11</v>
@@ -29225,10 +28459,8 @@
           <t>3681393972</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:07:27</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44142.54684027778</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29292,10 +28524,8 @@
           <t>3681450304</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:07:14</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44142.54668981482</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29359,10 +28589,8 @@
           <t>3681284588</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:07:04</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44142.54657407408</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29430,10 +28658,8 @@
           <t>3681459472</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:06:36</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44142.54625</v>
       </c>
       <c r="I396" t="n">
         <v>6</v>
@@ -29502,10 +28728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:06:16</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44142.54601851852</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29573,10 +28797,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:06:14</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44142.54599537037</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29636,10 +28858,8 @@
           <t>3681355514</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:06:09</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44142.5459375</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29711,10 +28931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:05:52</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44142.54574074074</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29782,10 +29000,8 @@
           <t>3681458084</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:05:25</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44142.54542824074</v>
       </c>
       <c r="I401" t="n">
         <v>7</v>
@@ -29857,10 +29073,8 @@
           <t>3681453347</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:05:16</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44142.54532407408</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29932,10 +29146,8 @@
           <t>3681457865</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:05:13</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44142.54528935185</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30003,10 +29215,8 @@
           <t>3681457808</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:05:10</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44142.54525462963</v>
       </c>
       <c r="I404" t="n">
         <v>5</v>
@@ -30074,10 +29284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:04:43</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44142.54494212963</v>
       </c>
       <c r="I405" t="n">
         <v>53</v>
@@ -30150,10 +29358,8 @@
           <t>3681450304</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:04:38</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44142.54488425926</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30229,10 +29435,8 @@
           <t>3681334192</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:04:24</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44142.54472222222</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30300,10 +29504,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:03:56</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44142.54439814815</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30367,10 +29569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:03:36</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44142.54416666667</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30442,10 +29642,8 @@
           <t>3681447782</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:03:15</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44142.54392361111</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30517,10 +29715,8 @@
           <t>3681447722</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:03:12</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44142.54388888889</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30588,10 +29784,8 @@
           <t>3681450304</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:02:44</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44142.54356481481</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30655,10 +29849,8 @@
           <t>3681444739</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:02:36</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44142.54347222222</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30730,10 +29922,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:02:33</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44142.5434375</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30797,10 +29987,8 @@
           <t>3681446666</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:02:19</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44142.54327546297</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30872,10 +30060,8 @@
           <t>3681357745</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:02:14</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44142.5432175926</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30943,10 +30129,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:46</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44142.54289351852</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31014,10 +30198,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:32</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44142.54273148148</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31089,10 +30271,8 @@
           <t>3681438744</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:24</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44142.54263888889</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31160,10 +30340,8 @@
           <t>3681334192</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:16</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44142.5425462963</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31235,10 +30413,8 @@
           <t>3681438580</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:15</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44142.54253472222</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31306,10 +30482,8 @@
           <t>3681443154</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:14</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44142.54252314815</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31381,10 +30555,8 @@
           <t>3681438266</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:01:00</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44142.54236111111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31452,10 +30624,8 @@
           <t>3681357745</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:52</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44142.54226851852</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31523,10 +30693,8 @@
           <t>3681332140</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:49</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44142.5422337963</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31590,10 +30758,8 @@
           <t>3681434516</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:34</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44142.54206018519</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31669,10 +30835,8 @@
           <t>3681434444</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:32</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44142.54203703703</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31740,10 +30904,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:18</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44142.541875</v>
       </c>
       <c r="I428" t="n">
         <v>3</v>
@@ -31819,10 +30981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:16</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44142.54185185185</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31898,10 +31058,8 @@
           <t>3681441845</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-07 13:00:10</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44142.54178240741</v>
       </c>
       <c r="I430" t="n">
         <v>4</v>
@@ -31977,10 +31135,8 @@
           <t>3681441591</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:59:57</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44142.54163194444</v>
       </c>
       <c r="I431" t="n">
         <v>3</v>
@@ -32040,10 +31196,8 @@
           <t>3681440778</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:59:14</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44142.54113425926</v>
       </c>
       <c r="I432" t="n">
         <v>3</v>
@@ -32115,10 +31269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:59:03</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44142.54100694445</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32182,10 +31334,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:58:52</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44142.54087962963</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32249,10 +31399,8 @@
           <t>3681440218</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:58:45</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44142.54079861111</v>
       </c>
       <c r="I435" t="n">
         <v>42</v>
@@ -32324,10 +31472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:58:41</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44142.54075231482</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32403,10 +31549,8 @@
           <t>3681435521</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:58:38</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44142.54071759259</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32474,10 +31618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:58:12</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44142.54041666666</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32553,10 +31695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:57:20</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44142.53981481482</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32632,10 +31772,8 @@
           <t>3681415844</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:57:07</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44142.53966435185</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32699,10 +31837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:57:05</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44142.5396412037</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32766,10 +31902,8 @@
           <t>3681430167</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:57:00</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44142.53958333333</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32841,10 +31975,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:56:57</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44142.53954861111</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32916,10 +32048,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:56:52</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44142.53949074074</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32995,10 +32125,8 @@
           <t>3681427915</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:56:49</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44142.53945601852</v>
       </c>
       <c r="I445" t="n">
         <v>10</v>
@@ -33074,10 +32202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:56:45</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44142.53940972222</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33149,10 +32275,8 @@
           <t>3681422807</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:56:24</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44142.53916666667</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33220,10 +32344,8 @@
           <t>3681357745</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:56:04</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44142.53893518518</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33299,10 +32421,8 @@
           <t>3681418775</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:55:51</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44142.53878472222</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33370,10 +32490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:55:49</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44142.53876157408</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33437,10 +32555,8 @@
           <t>3681418424</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:55:34</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44142.53858796296</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33516,10 +32632,8 @@
           <t>3681426080</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:55:19</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44142.53841435185</v>
       </c>
       <c r="I452" t="n">
         <v>2</v>
@@ -33583,10 +32697,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:55:12</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44142.53833333333</v>
       </c>
       <c r="I453" t="n">
         <v>5</v>
@@ -33662,10 +32774,8 @@
           <t>3681417650</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:54:57</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44142.53815972222</v>
       </c>
       <c r="I454" t="n">
         <v>9</v>
@@ -33743,10 +32853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:54:55</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44142.53813657408</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -33818,10 +32926,8 @@
           <t>3681417330</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:54:41</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44142.53797453704</v>
       </c>
       <c r="I456" t="n">
         <v>16</v>
@@ -33885,10 +32991,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:54:04</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44142.5375462963</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -33952,10 +33056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:58</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44142.53747685185</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -34027,10 +33129,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:56</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44142.53745370371</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34102,10 +33202,8 @@
           <t>3681409791</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:52</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44142.53740740741</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34173,10 +33271,8 @@
           <t>3681416082</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:40</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44142.53726851852</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34240,10 +33336,8 @@
           <t>3681398166</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:37</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44142.5372337963</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34315,10 +33409,8 @@
           <t>3681413995</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:35</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44142.53721064814</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34382,10 +33474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:32</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44142.53717592593</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34463,10 +33553,8 @@
           <t>3681415844</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:53:29</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44142.53714120371</v>
       </c>
       <c r="I465" t="n">
         <v>11</v>
@@ -34538,10 +33626,8 @@
           <t>3681408546</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:51</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44142.53670138889</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34614,10 +33700,8 @@
           <t>3681404917</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:48</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44142.53666666667</v>
       </c>
       <c r="I467" t="n">
         <v>5</v>
@@ -34693,10 +33777,8 @@
           <t>3681404857</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:44</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44142.53662037037</v>
       </c>
       <c r="I468" t="n">
         <v>3</v>
@@ -34768,10 +33850,8 @@
           <t>3681337918</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:40</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44142.53657407407</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34843,10 +33923,8 @@
           <t>3681408152</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:31</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44142.53646990741</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34914,10 +33992,8 @@
           <t>3681412672</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:30</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44142.53645833334</v>
       </c>
       <c r="I471" t="n">
         <v>39</v>
@@ -34977,10 +34053,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:26</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44142.53641203704</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -35052,10 +34126,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:52:13</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44142.53626157407</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35132,10 +34204,8 @@
           <t>3681284588</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:51:45</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44142.5359375</v>
       </c>
       <c r="I474" t="n">
         <v>2</v>
@@ -35199,10 +34269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:51:15</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44142.53559027778</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35270,10 +34338,8 @@
           <t>3681394721</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:49:45</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44142.53454861111</v>
       </c>
       <c r="I476" t="n">
         <v>4</v>
@@ -35333,10 +34399,8 @@
           <t>3681394597</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:49:39</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44142.53447916666</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35404,10 +34468,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:49:30</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44142.534375</v>
       </c>
       <c r="I478" t="n">
         <v>6</v>
@@ -35475,10 +34537,8 @@
           <t>3681393972</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:49:08</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44142.53412037037</v>
       </c>
       <c r="I479" t="n">
         <v>12</v>
@@ -35542,10 +34602,8 @@
           <t>3681366056</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:48:50</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44142.53391203703</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35617,10 +34675,8 @@
           <t>3681398166</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:48:47</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44142.53387731482</v>
       </c>
       <c r="I481" t="n">
         <v>3</v>
@@ -35685,10 +34741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:48:34</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44142.53372685185</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35756,10 +34810,8 @@
           <t>3681389292</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:48:23</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44142.53359953704</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35823,10 +34875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:48:11</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44142.53346064815</v>
       </c>
       <c r="I484" t="n">
         <v>3</v>
@@ -35894,10 +34944,8 @@
           <t>3681332140</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:52</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44142.53324074074</v>
       </c>
       <c r="I485" t="n">
         <v>10</v>
@@ -35961,10 +35009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:43</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44142.53313657407</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36035,10 +35081,8 @@
           <t>3681396804</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:37</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44142.53306712963</v>
       </c>
       <c r="I487" t="n">
         <v>35</v>
@@ -36114,10 +35158,8 @@
           <t>3681391847</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:23</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44142.53290509259</v>
       </c>
       <c r="I488" t="n">
         <v>8</v>
@@ -36185,10 +35227,8 @@
           <t>3681390778</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:10</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44142.53275462963</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36264,10 +35304,8 @@
           <t>3681366056</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:02</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44142.53266203704</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36343,10 +35381,8 @@
           <t>3681396097</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:47:01</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44142.53265046296</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36422,10 +35458,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:55</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44142.53258101852</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36501,10 +35535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:54</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44142.53256944445</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36576,10 +35608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:51</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44142.53253472222</v>
       </c>
       <c r="I494" t="n">
         <v>2</v>
@@ -36651,10 +35681,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:50</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44142.53252314815</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36731,10 +35759,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:46</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44142.53247685185</v>
       </c>
       <c r="I496" t="n">
         <v>21</v>
@@ -36810,10 +35836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:40</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44142.53240740741</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36877,10 +35901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:38</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44142.53238425926</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36948,10 +35970,8 @@
           <t>3681395462</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:31</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44142.53230324074</v>
       </c>
       <c r="I499" t="n">
         <v>5</v>
@@ -37019,10 +36039,8 @@
           <t>3681390778</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:31</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44142.53230324074</v>
       </c>
       <c r="I500" t="n">
         <v>16</v>
@@ -37090,10 +36108,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:24</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44142.53222222222</v>
       </c>
       <c r="I501" t="n">
         <v>6</v>
@@ -37157,10 +36173,8 @@
           <t>3681337918</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:46:08</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44142.53203703704</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37224,10 +36238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:45:46</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44142.53178240741</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37296,10 +36308,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:45:38</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44142.53168981482</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37363,10 +36373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:45:32</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44142.53162037037</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37438,10 +36446,8 @@
           <t>3681385150</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:45:03</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44142.53128472222</v>
       </c>
       <c r="I506" t="n">
         <v>21</v>
@@ -37509,10 +36515,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:44:48</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44142.53111111111</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37580,10 +36584,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:44:18</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44142.53076388889</v>
       </c>
       <c r="I508" t="n">
         <v>9</v>
@@ -37651,10 +36653,8 @@
           <t>3681334192</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:44:06</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44142.530625</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37726,10 +36726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:43:23</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44142.53012731481</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37801,10 +36799,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:43:19</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44142.53008101852</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37872,10 +36868,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:43:19</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44142.53008101852</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37951,10 +36945,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:43:17</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44142.53005787037</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38026,10 +37018,8 @@
           <t>3681381321</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:43:02</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44142.52988425926</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38097,10 +37087,8 @@
           <t>3681334192</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:42:55</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44142.52980324074</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38164,10 +37152,8 @@
           <t>3681372473</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:42:50</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44142.52974537037</v>
       </c>
       <c r="I516" t="n">
         <v>3</v>
@@ -38241,10 +37227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:42:12</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44142.52930555555</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38313,10 +37297,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:41:54</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44142.52909722222</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38384,10 +37366,8 @@
           <t>3681369641</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:41:39</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44142.52892361111</v>
       </c>
       <c r="I519" t="n">
         <v>3</v>
@@ -38455,10 +37435,8 @@
           <t>3681309587</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:41:21</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44142.52871527777</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38530,10 +37508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:41:14</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44142.52863425926</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38605,10 +37581,8 @@
           <t>3681369018</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:41:07</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44142.52855324074</v>
       </c>
       <c r="I522" t="n">
         <v>16</v>
@@ -38676,10 +37650,8 @@
           <t>3681368880</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:41:00</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44142.52847222222</v>
       </c>
       <c r="I523" t="n">
         <v>11</v>
@@ -38755,10 +37727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:40:59</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44142.52846064815</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38822,10 +37792,8 @@
           <t>3681364026</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:40:52</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44142.52837962963</v>
       </c>
       <c r="I525" t="n">
         <v>8</v>
@@ -38901,10 +37869,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:40:36</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44142.52819444444</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -38976,10 +37942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:40:28</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44142.52810185185</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -39047,10 +38011,8 @@
           <t>3681355514</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:40:04</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44142.52782407407</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39118,10 +38080,8 @@
           <t>3681367066</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:40:01</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44142.52778935185</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39193,10 +38153,8 @@
           <t>3681312480</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:45</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44142.52760416667</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39260,10 +38218,8 @@
           <t>3681367066</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:29</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44142.52741898148</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39327,10 +38283,8 @@
           <t>3681337918</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:14</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44142.52724537037</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39402,10 +38356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:08</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44142.52717592593</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39469,10 +38421,8 @@
           <t>3681357777</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:03</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44142.52711805556</v>
       </c>
       <c r="I534" t="n">
         <v>73</v>
@@ -39540,10 +38490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:03</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44142.52711805556</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39611,10 +38559,8 @@
           <t>3681357745</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:39:02</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44142.52710648148</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39682,10 +38628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:38:44</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44142.52689814815</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39757,10 +38701,8 @@
           <t>3681366056</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:38:40</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44142.52685185185</v>
       </c>
       <c r="I538" t="n">
         <v>9</v>
@@ -39832,10 +38774,8 @@
           <t>3681357240</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:38:39</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44142.52684027778</v>
       </c>
       <c r="I539" t="n">
         <v>3</v>
@@ -39907,10 +38847,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:38:33</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44142.52677083333</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39974,10 +38912,8 @@
           <t>3681365524</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:38:13</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44142.52653935185</v>
       </c>
       <c r="I541" t="n">
         <v>5</v>
@@ -40045,10 +38981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:37:20</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44142.52592592593</v>
       </c>
       <c r="I542" t="n">
         <v>128</v>
@@ -40112,10 +39046,8 @@
           <t>3681355514</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:37:15</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44142.52586805556</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40193,10 +39125,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:37:10</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44142.52581018519</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40268,10 +39198,8 @@
           <t>3681349282</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:59</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44142.52568287037</v>
       </c>
       <c r="I545" t="n">
         <v>22</v>
@@ -40343,10 +39271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:47</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44142.52554398148</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40418,10 +39344,8 @@
           <t>3681332140</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:47</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44142.52554398148</v>
       </c>
       <c r="I547" t="n">
         <v>5</v>
@@ -40485,10 +39409,8 @@
           <t>3681307393</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:45</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44142.52552083333</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40560,10 +39482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:35</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44142.52540509259</v>
       </c>
       <c r="I549" t="n">
         <v>2</v>
@@ -40627,10 +39547,8 @@
           <t>3681353545</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:31</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44142.52535879629</v>
       </c>
       <c r="I550" t="n">
         <v>13</v>
@@ -40707,10 +39625,8 @@
           <t>3681353317</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:20</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44142.52523148148</v>
       </c>
       <c r="I551" t="n">
         <v>5</v>
@@ -40782,10 +39698,8 @@
           <t>3681334192</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:36:06</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44142.52506944445</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40857,10 +39771,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:35:58</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44142.52497685186</v>
       </c>
       <c r="I553" t="n">
         <v>2</v>
@@ -40928,10 +39840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:35:54</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44142.52493055556</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
@@ -40995,10 +39905,8 @@
           <t>3681347486</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:35:31</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44142.52466435185</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -41066,10 +39974,8 @@
           <t>3681343160</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:35:17</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44142.52450231482</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41129,10 +40035,8 @@
           <t>3681352043</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:35:15</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44142.52447916667</v>
       </c>
       <c r="I557" t="n">
         <v>2</v>
@@ -41200,10 +40104,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:34:55</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44142.52424768519</v>
       </c>
       <c r="I558" t="n">
         <v>13</v>
@@ -41271,10 +40173,8 @@
           <t>3681351488</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:34:48</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44142.52416666667</v>
       </c>
       <c r="I559" t="n">
         <v>4</v>
@@ -41338,10 +40238,8 @@
           <t>3681342436</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:34:42</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44142.52409722222</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41409,10 +40307,8 @@
           <t>3681345900</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:34:15</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44142.52378472222</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41488,10 +40384,8 @@
           <t>3681337918</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:34:07</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44142.52369212963</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41555,10 +40449,8 @@
           <t>3681307393</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:33:39</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44142.52336805555</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41622,10 +40514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:33:36</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44142.52333333333</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41694,10 +40584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:33:29</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44142.52325231482</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41773,10 +40661,8 @@
           <t>3681340950</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:33:29</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44142.52325231482</v>
       </c>
       <c r="I566" t="n">
         <v>2</v>
@@ -41840,10 +40726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:33:28</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44142.52324074074</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41907,10 +40791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:33:00</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44142.52291666667</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41978,10 +40860,8 @@
           <t>3681334192</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:32:52</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44142.52282407408</v>
       </c>
       <c r="I569" t="n">
         <v>2</v>
@@ -42053,10 +40933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:32:34</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44142.52261574074</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42128,10 +41006,8 @@
           <t>3681338686</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:32:33</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44142.52260416667</v>
       </c>
       <c r="I571" t="n">
         <v>2</v>
@@ -42199,10 +41075,8 @@
           <t>3681329146</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:32:05</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44142.52228009259</v>
       </c>
       <c r="I572" t="n">
         <v>36</v>
@@ -42270,10 +41144,8 @@
           <t>3681329010</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:59</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44142.52221064815</v>
       </c>
       <c r="I573" t="n">
         <v>14</v>
@@ -42349,10 +41221,8 @@
           <t>3681337918</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:55</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44142.52216435185</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42416,10 +41286,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:50</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44142.52210648148</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42496,10 +41364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:38</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44142.52196759259</v>
       </c>
       <c r="I576" t="n">
         <v>6</v>
@@ -42571,10 +41437,8 @@
           <t>3681337518</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:35</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44142.52193287037</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42650,10 +41514,8 @@
           <t>3681332545</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:33</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44142.52190972222</v>
       </c>
       <c r="I578" t="n">
         <v>64</v>
@@ -42717,10 +41579,8 @@
           <t>3681332333</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:24</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44142.52180555555</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42784,10 +41644,8 @@
           <t>3681332140</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:14</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44142.52168981481</v>
       </c>
       <c r="I580" t="n">
         <v>31</v>
@@ -42851,10 +41709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:06</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44142.52159722222</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42922,10 +41778,8 @@
           <t>3681331874</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:31:00</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44142.52152777778</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43002,10 +41856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:55</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44142.52146990741</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -43069,10 +41921,8 @@
           <t>3681327524</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:50</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44142.52141203704</v>
       </c>
       <c r="I584" t="n">
         <v>2</v>
@@ -43144,10 +41994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:35</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44142.52123842593</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43219,10 +42067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:29</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44142.52116898148</v>
       </c>
       <c r="I586" t="n">
         <v>7</v>
@@ -43299,10 +42145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:25</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44142.52112268518</v>
       </c>
       <c r="I587" t="n">
         <v>60</v>
@@ -43370,10 +42214,8 @@
           <t>3681331128</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:23</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44142.52109953704</v>
       </c>
       <c r="I588" t="n">
         <v>26</v>
@@ -43448,10 +42290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:19</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44142.52105324074</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43519,10 +42359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:09</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44142.5209375</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43598,10 +42436,8 @@
           <t>3681335755</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:08</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44142.52092592593</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43661,10 +42497,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:30:06</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44142.52090277777</v>
       </c>
       <c r="I592" t="n">
         <v>45</v>
@@ -43732,10 +42566,8 @@
           <t>3681335561</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:29:58</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44142.52081018518</v>
       </c>
       <c r="I593" t="n">
         <v>3</v>
@@ -43807,10 +42639,8 @@
           <t>3681308994</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:29:52</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44142.52074074074</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43886,10 +42716,8 @@
           <t>3681318016</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:29:33</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44142.52052083334</v>
       </c>
       <c r="I595" t="n">
         <v>2</v>
@@ -43965,10 +42793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:29:18</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44142.52034722222</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44044,10 +42870,8 @@
           <t>3681319086</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:28:45</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44142.51996527778</v>
       </c>
       <c r="I597" t="n">
         <v>14</v>
@@ -44116,10 +42940,8 @@
           <t>3681318707</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:28:27</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44142.51975694444</v>
       </c>
       <c r="I598" t="n">
         <v>59</v>
@@ -44190,10 +43012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:28:26</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44142.51974537037</v>
       </c>
       <c r="I599" t="n">
         <v>52</v>
@@ -44261,10 +43081,8 @@
           <t>3681318335</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:28:08</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44142.51953703703</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44336,10 +43154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:28:06</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44142.51951388889</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44415,10 +43231,8 @@
           <t>3681318068</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:54</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44142.519375</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44486,10 +43300,8 @@
           <t>3681318016</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:52</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44142.51935185185</v>
       </c>
       <c r="I603" t="n">
         <v>2</v>
@@ -44553,10 +43365,8 @@
           <t>3681294880</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:42</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44142.51923611111</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44628,10 +43438,8 @@
           <t>3681317736</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:38</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44142.51918981481</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44699,10 +43507,8 @@
           <t>3681322697</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:37</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44142.51917824074</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44779,10 +43585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:27</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44142.5190625</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44850,10 +43654,8 @@
           <t>3681317442</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:27:23</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44142.5190162037</v>
       </c>
       <c r="I608" t="n">
         <v>6</v>
@@ -44917,10 +43719,8 @@
           <t>3681312480</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:26:48</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44142.51861111111</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44988,10 +43788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:26:32</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44142.51842592593</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45067,10 +43865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:25:59</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44142.51804398148</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45138,10 +43934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:25:57</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44142.51802083333</v>
       </c>
       <c r="I612" t="n">
         <v>12</v>
@@ -45213,10 +44007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:25:52</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44142.51796296296</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45292,10 +44084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:25:43</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44142.51785879629</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45367,10 +44157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:25:30</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44142.51770833333</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45446,10 +44234,8 @@
           <t>3681309587</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:25:03</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44142.51739583333</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45517,10 +44303,8 @@
           <t>3681309287</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:48</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44142.51722222222</v>
       </c>
       <c r="I617" t="n">
         <v>21</v>
@@ -45584,10 +44368,8 @@
           <t>3681299916</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:45</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44142.5171875</v>
       </c>
       <c r="I618" t="n">
         <v>5</v>
@@ -45655,10 +44437,8 @@
           <t>3681308994</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:35</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44142.51707175926</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45730,10 +44510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:33</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44142.51704861111</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45805,10 +44583,8 @@
           <t>3681284588</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:26</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44142.51696759259</v>
       </c>
       <c r="I621" t="n">
         <v>3</v>
@@ -45876,10 +44652,8 @@
           <t>3681303415</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:07</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44142.51674768519</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45947,10 +44721,8 @@
           <t>3681308298</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:01</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44142.51667824074</v>
       </c>
       <c r="I623" t="n">
         <v>10</v>
@@ -46026,10 +44798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:24:00</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44142.51666666667</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46098,10 +44868,8 @@
           <t>3681303023</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:23:47</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44142.5165162037</v>
       </c>
       <c r="I625" t="n">
         <v>80</v>
@@ -46165,10 +44933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:23:44</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44142.51648148148</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46240,10 +45006,8 @@
           <t>3681284588</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:23:44</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44142.51648148148</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46307,10 +45071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:23:41</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44142.51644675926</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46382,10 +45144,8 @@
           <t>3681307393</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:23:16</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44142.51615740741</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46453,10 +45213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:23:15</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44142.51614583333</v>
       </c>
       <c r="I630" t="n">
         <v>6</v>
@@ -46528,10 +45286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:52</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44142.51587962963</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46607,10 +45363,8 @@
           <t>3681297408</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:42</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44142.51576388889</v>
       </c>
       <c r="I632" t="n">
         <v>11</v>
@@ -46674,10 +45428,8 @@
           <t>3681300279</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:42</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44142.51576388889</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46741,10 +45493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:38</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44142.51571759259</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46820,10 +45570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:33</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44142.51565972222</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46891,10 +45639,8 @@
           <t>3681306414</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:27</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44142.51559027778</v>
       </c>
       <c r="I636" t="n">
         <v>1</v>
@@ -46962,10 +45708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:26</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44142.5155787037</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47033,10 +45777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:21</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44142.51552083333</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47104,10 +45846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:20</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44142.51550925926</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47175,10 +45915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:22:10</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44142.51539351852</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47250,10 +45988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:56</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44142.51523148148</v>
       </c>
       <c r="I641" t="n">
         <v>333</v>
@@ -47321,10 +46057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:37</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44142.51501157408</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47400,10 +46134,8 @@
           <t>3681300279</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:34</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44142.51497685185</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47476,10 +46208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:33</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44142.51496527778</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47547,10 +46277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:30</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44142.51493055555</v>
       </c>
       <c r="I645" t="n">
         <v>3</v>
@@ -47626,10 +46354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:24</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44142.51486111111</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47697,10 +46423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:21</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44142.51482638889</v>
       </c>
       <c r="I647" t="n">
         <v>1</v>
@@ -47764,10 +46488,8 @@
           <t>3681294880</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:14</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44142.51474537037</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -47835,10 +46557,8 @@
           <t>3681294664</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:03</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44142.51461805555</v>
       </c>
       <c r="I649" t="n">
         <v>11</v>
@@ -47898,10 +46618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:21:01</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44142.51459490741</v>
       </c>
       <c r="I650" t="n">
         <v>6</v>
@@ -47969,10 +46687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:58</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44142.51456018518</v>
       </c>
       <c r="I651" t="n">
         <v>12</v>
@@ -48048,10 +46764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:57</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44142.51454861111</v>
       </c>
       <c r="I652" t="n">
         <v>103</v>
@@ -48123,10 +46837,8 @@
           <t>3681289523</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:57</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44142.51454861111</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48194,10 +46906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:53</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44142.51450231481</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48265,10 +46975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:51</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44142.51447916667</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48332,10 +47040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:50</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44142.51446759259</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48403,10 +47109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:47</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44142.51443287037</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48482,10 +47186,8 @@
           <t>3681284681</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:37</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44142.51431712963</v>
       </c>
       <c r="I658" t="n">
         <v>1</v>
@@ -48553,10 +47255,8 @@
           <t>3681284588</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:32</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44142.51425925926</v>
       </c>
       <c r="I659" t="n">
         <v>1</v>
@@ -48620,10 +47320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:24</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44142.51416666667</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48701,10 +47399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:24</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44142.51416666667</v>
       </c>
       <c r="I661" t="n">
         <v>3</v>
@@ -48780,10 +47476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:23</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44142.51415509259</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48859,10 +47553,8 @@
           <t>3681288836</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:23</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44142.51415509259</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -48938,10 +47630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:06</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44142.51395833334</v>
       </c>
       <c r="I664" t="n">
         <v>309</v>
@@ -49010,10 +47700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:20:02</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44142.51391203704</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49085,10 +47773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:59</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44142.51387731481</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49148,10 +47834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:52</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44142.5137962963</v>
       </c>
       <c r="I667" t="n">
         <v>2</v>
@@ -49215,10 +47899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:49</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44142.51376157408</v>
       </c>
       <c r="I668" t="n">
         <v>4</v>
@@ -49286,10 +47968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:48</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44142.51375</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49357,10 +48037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:43</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44142.51369212963</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49438,10 +48116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:38</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44142.51363425926</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49509,10 +48185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:37</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44142.51362268518</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49588,10 +48262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:32</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44142.51356481481</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49655,10 +48327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:20</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44142.51342592593</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49734,10 +48404,8 @@
           <t>3681287518</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:18</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44142.51340277777</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49807,10 +48475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:13</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44142.51334490741</v>
       </c>
       <c r="I676" t="n">
         <v>1</v>
@@ -49882,10 +48548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:08</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44142.51328703704</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49957,10 +48621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:19:06</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44142.51326388889</v>
       </c>
       <c r="I678" t="n">
         <v>13</v>
@@ -50032,10 +48694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:52</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44142.51310185185</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50111,10 +48771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:46</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44142.51303240741</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50186,10 +48844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:41</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44142.51297453704</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50257,10 +48913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:40</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44142.51296296297</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50324,10 +48978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:37</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44142.51292824074</v>
       </c>
       <c r="I683" t="n">
         <v>551</v>
@@ -50395,10 +49047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:29</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44142.51283564815</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50466,10 +49116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:28</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44142.51282407407</v>
       </c>
       <c r="I685" t="n">
         <v>151</v>
@@ -50537,10 +49185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:25</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44142.51278935185</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50608,10 +49254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:19</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44142.5127199074</v>
       </c>
       <c r="I687" t="n">
         <v>3</v>
@@ -50675,10 +49319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:18</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44142.51270833334</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50750,10 +49392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:14</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44142.51266203704</v>
       </c>
       <c r="I689" t="n">
         <v>3</v>
@@ -50825,10 +49465,8 @@
           <t>3681286112</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:08</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44142.51259259259</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50896,10 +49534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:04</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44142.5125462963</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50967,10 +49603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:18:00</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44142.5125</v>
       </c>
       <c r="I692" t="n">
         <v>3</v>
@@ -51042,10 +49676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:55</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44142.51244212963</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
@@ -51113,10 +49745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:55</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44142.51244212963</v>
       </c>
       <c r="I694" t="n">
         <v>1</v>
@@ -51188,10 +49818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:53</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44142.51241898148</v>
       </c>
       <c r="I695" t="n">
         <v>3</v>
@@ -51255,10 +49883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:52</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44142.5124074074</v>
       </c>
       <c r="I696" t="n">
         <v>1</v>
@@ -51334,10 +49960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:52</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44142.5124074074</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51405,10 +50029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:50</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44142.51238425926</v>
       </c>
       <c r="I698" t="n">
         <v>1</v>
@@ -51484,10 +50106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:47</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44142.51234953704</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51559,10 +50179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:46</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44142.51233796297</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51635,10 +50253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:45</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44142.51232638889</v>
       </c>
       <c r="I701" t="n">
         <v>1008</v>
@@ -51714,10 +50330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:44</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44142.51231481481</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51785,10 +50399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:42</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44142.51229166667</v>
       </c>
       <c r="I703" t="n">
         <v>2</v>
@@ -51852,10 +50464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:38</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44142.51224537037</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51931,10 +50541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:36</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44142.51222222222</v>
       </c>
       <c r="I705" t="n">
         <v>6</v>
@@ -52011,10 +50619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:36</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44142.51222222222</v>
       </c>
       <c r="I706" t="n">
         <v>3</v>
@@ -52074,10 +50680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:36</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44142.51222222222</v>
       </c>
       <c r="I707" t="n">
         <v>2</v>
@@ -52141,10 +50745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:33</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44142.5121875</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -52216,10 +50818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:30</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44142.51215277778</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52291,10 +50891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:29</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44142.5121412037</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -52358,10 +50956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:20</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44142.51203703704</v>
       </c>
       <c r="I711" t="n">
         <v>28</v>
@@ -52429,10 +51025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:19</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44142.51202546297</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52500,10 +51094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:19</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44142.51202546297</v>
       </c>
       <c r="I713" t="n">
         <v>1</v>
@@ -52576,10 +51168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:16</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44142.51199074074</v>
       </c>
       <c r="I714" t="n">
         <v>4</v>
@@ -52647,10 +51237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:10</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44142.5119212963</v>
       </c>
       <c r="I715" t="n">
         <v>2</v>
@@ -52670,9 +51258,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M715">
-        <f>=，哟，居然看我资料</f>
-        <v/>
+      <c r="M715" t="inlineStr">
+        <is>
+          <t>==，哟，居然看我资料</t>
+        </is>
       </c>
       <c r="N715" t="n">
         <v>5</v>
@@ -52717,10 +51306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:08</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44142.51189814815</v>
       </c>
       <c r="I716" t="n">
         <v>2</v>
@@ -52792,10 +51379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:07</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44142.51188657407</v>
       </c>
       <c r="I717" t="n">
         <v>3</v>
@@ -52867,10 +51452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:03</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44142.51184027778</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52930,10 +51513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:02</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44142.5118287037</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -52997,10 +51578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:17:01</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44142.51181712963</v>
       </c>
       <c r="I720" t="n">
         <v>1</v>
@@ -53069,10 +51648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:55</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44142.51174768519</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -53136,10 +51713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:54</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44142.51173611111</v>
       </c>
       <c r="I722" t="n">
         <v>27</v>
@@ -53211,10 +51786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:53</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44142.51172453703</v>
       </c>
       <c r="I723" t="n">
         <v>2</v>
@@ -53278,10 +51851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:51</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44142.51170138889</v>
       </c>
       <c r="I724" t="n">
         <v>1</v>
@@ -53349,10 +51920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:51</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44142.51170138889</v>
       </c>
       <c r="I725" t="n">
         <v>1</v>
@@ -53428,10 +51997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:47</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44142.5116550926</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -53499,10 +52066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:45</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44142.51163194444</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53566,10 +52131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:44</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44142.51162037037</v>
       </c>
       <c r="I728" t="n">
         <v>1650</v>
@@ -53629,10 +52192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:44</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44142.51162037037</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53700,10 +52261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:41</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44142.51158564815</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53763,10 +52322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:38</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44142.51155092593</v>
       </c>
       <c r="I731" t="n">
         <v>1</v>
@@ -53834,10 +52391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:38</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44142.51155092593</v>
       </c>
       <c r="I732" t="n">
         <v>15</v>
@@ -53905,10 +52460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:35</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44142.5115162037</v>
       </c>
       <c r="I733" t="n">
         <v>1</v>
@@ -53972,10 +52525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:35</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44142.5115162037</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -54051,10 +52602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:31</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44142.5114699074</v>
       </c>
       <c r="I735" t="n">
         <v>1</v>
@@ -54130,10 +52679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:31</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44142.5114699074</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
@@ -54205,10 +52752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2020-11-07 12:16:25</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44142.51140046296</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
